--- a/data/5.Psicologos/leads_psicologo_completo.xlsx
+++ b/data/5.Psicologos/leads_psicologo_completo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06ae8d044cc0a8d9/Documentos/GitHub/Leads_sheacher/data/5.Psicologos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_3DD5D1B5D3F05A5F53BB2D11595ED87656CD5C7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F6BF61-15DD-4F59-B201-5768597C47E9}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_3DD5D1B5D3F05A5F53BB2D11595ED87656CD5C7D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCE5AE4B-57BB-4CF2-BB45-8172F45BA23E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="864" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="356">
   <si>
     <t>Nombre</t>
   </si>
@@ -1098,6 +1098,12 @@
   </si>
   <si>
     <t>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es</t>
+  </si>
+  <si>
+    <t>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com</t>
+  </si>
+  <si>
+    <t>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com</t>
   </si>
 </sst>
 </file>
@@ -1168,13 +1174,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1481,10 +1488,10 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2073,9 +2080,9 @@
       <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es</v>
+      <c r="H22" s="3" t="str">
+        <f>E22</f>
+        <v>info@ammapsicologia.es</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2100,9 +2107,9 @@
       <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com</v>
+      <c r="H23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2127,9 +2134,9 @@
       <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es</v>
+      <c r="H24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2154,9 +2161,9 @@
       <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com</v>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2181,9 +2188,9 @@
       <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com</v>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2208,9 +2215,9 @@
       <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com</v>
+      <c r="H27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2235,9 +2242,9 @@
       <c r="G28" t="s">
         <v>13</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es</v>
+      <c r="H28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2262,9 +2269,9 @@
       <c r="G29" t="s">
         <v>13</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com</v>
+      <c r="H29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2289,9 +2296,9 @@
       <c r="G30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com</v>
+      <c r="H30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2316,9 +2323,9 @@
       <c r="G31" t="s">
         <v>13</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com</v>
+      <c r="H31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2343,9 +2350,9 @@
       <c r="G32" t="s">
         <v>13</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com</v>
+      <c r="H32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2370,9 +2377,9 @@
       <c r="G33" t="s">
         <v>13</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es</v>
+      <c r="H33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2397,9 +2404,9 @@
       <c r="G34" t="s">
         <v>13</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com</v>
+      <c r="H34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2424,9 +2431,9 @@
       <c r="G35" t="s">
         <v>13</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com</v>
+      <c r="H35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2451,9 +2458,9 @@
       <c r="G36" t="s">
         <v>13</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com</v>
+      <c r="H36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2478,9 +2485,9 @@
       <c r="G37" t="s">
         <v>13</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com</v>
+      <c r="H37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2505,9 +2512,9 @@
       <c r="G38" t="s">
         <v>13</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com</v>
+      <c r="H38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2532,9 +2539,9 @@
       <c r="G39" t="s">
         <v>13</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com</v>
+      <c r="H39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2559,9 +2566,9 @@
       <c r="G40" t="s">
         <v>13</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com</v>
+      <c r="H40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2586,9 +2593,8 @@
       <c r="G41" t="s">
         <v>13</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com</v>
+      <c r="H41" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2613,9 +2619,9 @@
       <c r="G42" t="s">
         <v>13</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net</v>
+      <c r="H42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2640,9 +2646,9 @@
       <c r="G43" t="s">
         <v>13</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com</v>
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2667,9 +2673,9 @@
       <c r="G44" t="s">
         <v>13</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com</v>
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2691,9 +2697,9 @@
       <c r="G45" t="s">
         <v>13</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com</v>
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2718,9 +2724,9 @@
       <c r="G46" t="s">
         <v>13</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com</v>
+      <c r="H46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2745,9 +2751,9 @@
       <c r="G47" t="s">
         <v>13</v>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com</v>
+      <c r="H47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2772,9 +2778,9 @@
       <c r="G48" t="s">
         <v>13</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com</v>
+      <c r="H48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2799,9 +2805,9 @@
       <c r="G49" t="s">
         <v>13</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com</v>
+      <c r="H49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2826,9 +2832,9 @@
       <c r="G50" t="s">
         <v>13</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net</v>
+      <c r="H50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2853,9 +2859,9 @@
       <c r="G51" t="s">
         <v>13</v>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com</v>
+      <c r="H51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2880,9 +2886,9 @@
       <c r="G52" t="s">
         <v>13</v>
       </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com</v>
+      <c r="H52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2907,9 +2913,9 @@
       <c r="G53" t="s">
         <v>13</v>
       </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es</v>
+      <c r="H53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -2934,9 +2940,9 @@
       <c r="G54" t="s">
         <v>13</v>
       </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es</v>
+      <c r="H54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2961,9 +2967,9 @@
       <c r="G55" t="s">
         <v>13</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es</v>
+      <c r="H55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2988,9 +2994,9 @@
       <c r="G56" t="s">
         <v>13</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com</v>
+      <c r="H56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3015,9 +3021,9 @@
       <c r="G57" t="s">
         <v>13</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
+      <c r="H57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3042,9 +3048,9 @@
       <c r="G58" t="s">
         <v>13</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com</v>
+      <c r="H58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3069,9 +3075,9 @@
       <c r="G59" t="s">
         <v>13</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com</v>
+      <c r="H59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3096,9 +3102,9 @@
       <c r="G60" t="s">
         <v>13</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com</v>
+      <c r="H60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3123,9 +3129,8 @@
       <c r="G61" t="s">
         <v>13</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com</v>
+      <c r="H61" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3151,8 +3156,8 @@
         <v>13</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es</v>
+        <f>E62</f>
+        <v>info@somospsicologos.es</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3179,7 +3184,7 @@
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3206,7 +3211,7 @@
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3233,7 +3238,7 @@
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -3260,7 +3265,7 @@
       </c>
       <c r="H66" t="str">
         <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -3287,7 +3292,7 @@
       </c>
       <c r="H67" t="str">
         <f t="shared" si="0"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -3314,7 +3319,7 @@
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H72" si="1">H67&amp;";"&amp;E68</f>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -3341,7 +3346,7 @@
       </c>
       <c r="H69" t="str">
         <f t="shared" si="1"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -3368,7 +3373,7 @@
       </c>
       <c r="H70" t="str">
         <f t="shared" si="1"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com;info@avancepsicologos.com</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com;info@avancepsicologos.com</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3395,7 +3400,7 @@
       </c>
       <c r="H71" t="str">
         <f t="shared" si="1"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com;info@avancepsicologos.com;info@implicapsicologia.com</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com;info@avancepsicologos.com;info@implicapsicologia.com</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -3422,7 +3427,7 @@
       </c>
       <c r="H72" t="str">
         <f t="shared" si="1"/>
-        <v>hola@centromaspsicologia.com;mariadoloresperez@psiclola.com;info@vmpsicologia.es;info@nvagpsicologia.com;hola@centromaspsicologia.com;cepae@cepae.es;crecerymas.coordinacion@gmail.com;laurarabascog@gmail.com;Copyright@arpsicologia.com;alcobendas@NeuroDei.com;espacioescucha@psicoterapiasendas.es;espacioescucha@psicoterapiasendas.es;info@greciadejesus.com;citas@psicologosanimasana.es;info@alcanzapsicologos.es;alcobendas@NeuroDei.com;info@psicologiaprevencionybienestar.es;hellomidu@email.com;info@neuroped.es;info@terapiadellenguaje.es;info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com;contacto@enequilibriomental.net;clinica@institutopsicode.com;centropsicologicosmc@gmail.com;info@supiha.com;nuestropsicologo.citas@gmail.com;anarodrigo.psicologa@gmail.com;consulta@cgpsicologia.com;info@tuyopsicologos.com;manuel@psicologiamadrid.net;%20contacto@arbolato.com;center@centerpsicologia.com;edulaz@cop.es;psikids-pozuelo@psikids.es;info@psicologiamadrid.es;contacto@antestupsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com;info@alceapsicologia.com;info@sandrahernandezpsicologa.com;carolina.alvarez@psicoanalitica.com;info@psicolaume.com;info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com;info@avancepsicologos.com;info@implicapsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
+        <v>info@somospsicologos.es;info@calmaperinatal.es;info@elpradopsicologos.es;mariamontespsicoterapia@gmail.com;info@basepsicologia.es;contacto@afpsicologia.com;nombre@email.com;%20contacto@institutoclaritas.com;info@avancepsicologos.com;info@implicapsicologia.com;605a7baede844d278b89dc95ae0a9123@sentry-next.wixpress.com</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -3433,8 +3438,9 @@
   <hyperlinks>
     <hyperlink ref="E24" r:id="rId1" display="mailto:info@psicoform360.es" xr:uid="{11337DE9-135C-4A99-925D-A2C4DBEB819A}"/>
     <hyperlink ref="E9" r:id="rId2" display="mailto:laurarabascog@gmail.com" xr:uid="{E6C8984F-1C59-4932-BCB3-302CA7D09AAB}"/>
+    <hyperlink ref="H41" r:id="rId3" display="info@ammapsicologia.es;hola@hablapsicologia.com;info@psicoform360.es;info@ponspsicologia.com;info@tupsicoterapiamadrid.com;contacto@psicotep.com;mmoragon@cop.es;I_estaun@imagen10.com;info@mensalud.com;info@elvisopsicologos.com;equipoactua@gmail.com;info@aitta.es;nuestropsicologo.citas@gmail.com;info@silviasanzpsicologa.com;info@rospsicologia.com;administrador@centropsintegra.com;info@symbolpsicologia.com;user@domain.com;consulta@psicologiabayli.com;soporte@doctoralia.com" xr:uid="{D0E9B5F8-550B-4719-8971-2C82A6780622}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>